--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件收案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件收案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>108448</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16551</v>
+      </c>
       <c r="D2" t="n">
-        <v>1284415</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>1423180</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1374136</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50499</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24020</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28439</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1164521</v>
+      </c>
+      <c r="J2" t="n">
+        <v>49044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26648</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4054</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>166991</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83190</v>
+      </c>
       <c r="D3" t="n">
-        <v>1264037</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>1593743</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1471843</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48042</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25494</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33876</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1206476</v>
+      </c>
+      <c r="J3" t="n">
+        <v>121900</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24840</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4834</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>171541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>125861</v>
+      </c>
       <c r="D4" t="n">
-        <v>1161370</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>1686694</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1518535</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45980</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25857</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1251234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>168159</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23923</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5254</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60873</v>
+        <v>120687</v>
       </c>
       <c r="C5" t="n">
-        <v>7311</v>
+        <v>73399</v>
       </c>
       <c r="D5" t="n">
-        <v>1133333</v>
+        <v>1651666</v>
       </c>
       <c r="E5" t="n">
-        <v>1114879</v>
+        <v>1526279</v>
       </c>
       <c r="F5" t="n">
-        <v>37280</v>
+        <v>48229</v>
       </c>
       <c r="G5" t="n">
-        <v>24556</v>
+        <v>27394</v>
       </c>
       <c r="H5" t="n">
-        <v>9961</v>
+        <v>45785</v>
       </c>
       <c r="I5" t="n">
-        <v>956313</v>
+        <v>1304841</v>
       </c>
       <c r="J5" t="n">
-        <v>18454</v>
+        <v>125387</v>
       </c>
       <c r="K5" t="n">
-        <v>35857</v>
+        <v>25128</v>
       </c>
       <c r="L5" t="n">
-        <v>1182</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60001</v>
+        <v>126453</v>
       </c>
       <c r="C6" t="n">
-        <v>8457</v>
+        <v>29434</v>
       </c>
       <c r="D6" t="n">
-        <v>1159826</v>
+        <v>1635244</v>
       </c>
       <c r="E6" t="n">
-        <v>1139174</v>
+        <v>1548493</v>
       </c>
       <c r="F6" t="n">
-        <v>40574</v>
+        <v>50539</v>
       </c>
       <c r="G6" t="n">
-        <v>22839</v>
+        <v>27963</v>
       </c>
       <c r="H6" t="n">
-        <v>10824</v>
+        <v>50705</v>
       </c>
       <c r="I6" t="n">
-        <v>984167</v>
+        <v>1318744</v>
       </c>
       <c r="J6" t="n">
-        <v>20652</v>
+        <v>86751</v>
       </c>
       <c r="K6" t="n">
-        <v>31593</v>
+        <v>24794</v>
       </c>
       <c r="L6" t="n">
-        <v>1371</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67101</v>
+        <v>138858</v>
       </c>
       <c r="C7" t="n">
-        <v>10585</v>
+        <v>35983</v>
       </c>
       <c r="D7" t="n">
-        <v>1220772</v>
+        <v>1758926</v>
       </c>
       <c r="E7" t="n">
-        <v>1195718</v>
+        <v>1662102</v>
       </c>
       <c r="F7" t="n">
-        <v>45013</v>
+        <v>56042</v>
       </c>
       <c r="G7" t="n">
-        <v>24446</v>
+        <v>32442</v>
       </c>
       <c r="H7" t="n">
-        <v>12750</v>
+        <v>54391</v>
       </c>
       <c r="I7" t="n">
-        <v>1029837</v>
+        <v>1408483</v>
       </c>
       <c r="J7" t="n">
-        <v>25054</v>
+        <v>96824</v>
       </c>
       <c r="K7" t="n">
-        <v>29321</v>
+        <v>26277</v>
       </c>
       <c r="L7" t="n">
-        <v>1719</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80730</v>
+        <v>133101</v>
       </c>
       <c r="C8" t="n">
-        <v>11473</v>
+        <v>39775</v>
       </c>
       <c r="D8" t="n">
-        <v>1320364</v>
+        <v>1735516</v>
       </c>
       <c r="E8" t="n">
-        <v>1286437</v>
+        <v>1633376</v>
       </c>
       <c r="F8" t="n">
-        <v>49092</v>
+        <v>58944</v>
       </c>
       <c r="G8" t="n">
-        <v>27021</v>
+        <v>34514</v>
       </c>
       <c r="H8" t="n">
-        <v>20020</v>
+        <v>56450</v>
       </c>
       <c r="I8" t="n">
-        <v>1099997</v>
+        <v>1381673</v>
       </c>
       <c r="J8" t="n">
-        <v>33927</v>
+        <v>102140</v>
       </c>
       <c r="K8" t="n">
-        <v>29597</v>
+        <v>25144</v>
       </c>
       <c r="L8" t="n">
-        <v>2434</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94739</v>
+        <v>137545</v>
       </c>
       <c r="C9" t="n">
-        <v>12653</v>
+        <v>53085</v>
       </c>
       <c r="D9" t="n">
-        <v>1379692</v>
+        <v>1802151</v>
       </c>
       <c r="E9" t="n">
-        <v>1341029</v>
+        <v>1681658</v>
       </c>
       <c r="F9" t="n">
-        <v>49193</v>
+        <v>5914</v>
       </c>
       <c r="G9" t="n">
-        <v>25626</v>
+        <v>97707</v>
       </c>
       <c r="H9" t="n">
-        <v>22670</v>
+        <v>58846</v>
       </c>
       <c r="I9" t="n">
-        <v>1142586</v>
+        <v>1409563</v>
       </c>
       <c r="J9" t="n">
-        <v>38663</v>
+        <v>117937</v>
       </c>
       <c r="K9" t="n">
-        <v>28885</v>
+        <v>25394</v>
       </c>
       <c r="L9" t="n">
-        <v>3340</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108448</v>
+        <v>143454</v>
       </c>
       <c r="C10" t="n">
-        <v>16551</v>
+        <v>66371</v>
       </c>
       <c r="D10" t="n">
-        <v>1423180</v>
+        <v>1808787</v>
       </c>
       <c r="E10" t="n">
-        <v>1374136</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50499</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24020</v>
-      </c>
+        <v>1666172</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>28439</v>
+        <v>68242</v>
       </c>
       <c r="I10" t="n">
-        <v>1164521</v>
+        <v>1377073</v>
       </c>
       <c r="J10" t="n">
-        <v>49044</v>
+        <v>141134</v>
       </c>
       <c r="K10" t="n">
-        <v>26648</v>
+        <v>25560</v>
       </c>
       <c r="L10" t="n">
-        <v>4054</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166991</v>
+        <v>148566</v>
       </c>
       <c r="C11" t="n">
-        <v>83190</v>
+        <v>69324</v>
       </c>
       <c r="D11" t="n">
-        <v>1593743</v>
+        <v>1836638</v>
       </c>
       <c r="E11" t="n">
-        <v>1471843</v>
-      </c>
-      <c r="F11" t="n">
-        <v>48042</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25494</v>
-      </c>
+        <v>1691808</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>33876</v>
+        <v>67384</v>
       </c>
       <c r="I11" t="n">
-        <v>1206476</v>
+        <v>1378126</v>
       </c>
       <c r="J11" t="n">
-        <v>121900</v>
+        <v>143580</v>
       </c>
       <c r="K11" t="n">
-        <v>24840</v>
+        <v>26184</v>
       </c>
       <c r="L11" t="n">
-        <v>4834</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171541</v>
+        <v>135245</v>
       </c>
       <c r="C12" t="n">
-        <v>125861</v>
+        <v>61504</v>
       </c>
       <c r="D12" t="n">
-        <v>1686694</v>
+        <v>1635049</v>
       </c>
       <c r="E12" t="n">
-        <v>1518535</v>
-      </c>
-      <c r="F12" t="n">
-        <v>45980</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25857</v>
-      </c>
+        <v>1514556</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>37044</v>
+        <v>51897</v>
       </c>
       <c r="I12" t="n">
-        <v>1251234</v>
+        <v>1231932</v>
       </c>
       <c r="J12" t="n">
-        <v>168159</v>
+        <v>119333</v>
       </c>
       <c r="K12" t="n">
-        <v>23923</v>
+        <v>21413</v>
       </c>
       <c r="L12" t="n">
-        <v>5254</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120687</v>
+        <v>154129</v>
       </c>
       <c r="C13" t="n">
-        <v>73399</v>
+        <v>65488</v>
       </c>
       <c r="D13" t="n">
-        <v>1651666</v>
+        <v>1898588</v>
       </c>
       <c r="E13" t="n">
-        <v>1526279</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48229</v>
-      </c>
-      <c r="G13" t="n">
-        <v>27394</v>
-      </c>
+        <v>1769487</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>45785</v>
+        <v>53358</v>
       </c>
       <c r="I13" t="n">
-        <v>1304841</v>
+        <v>1440908</v>
       </c>
       <c r="J13" t="n">
-        <v>125387</v>
+        <v>127128</v>
       </c>
       <c r="K13" t="n">
-        <v>25128</v>
+        <v>24117</v>
       </c>
       <c r="L13" t="n">
-        <v>6203</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>126453</v>
-      </c>
-      <c r="C14" t="n">
-        <v>29434</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1635244</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1548493</v>
-      </c>
-      <c r="F14" t="n">
-        <v>50539</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27963</v>
-      </c>
-      <c r="H14" t="n">
-        <v>50705</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1318744</v>
-      </c>
-      <c r="J14" t="n">
-        <v>86751</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24794</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6612</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>138858</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35983</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1758926</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1662102</v>
-      </c>
-      <c r="F15" t="n">
-        <v>56042</v>
-      </c>
-      <c r="G15" t="n">
-        <v>32442</v>
-      </c>
-      <c r="H15" t="n">
-        <v>54391</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1408483</v>
-      </c>
-      <c r="J15" t="n">
-        <v>96824</v>
-      </c>
-      <c r="K15" t="n">
-        <v>26277</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>133101</v>
-      </c>
-      <c r="C16" t="n">
-        <v>39775</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1735516</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1633376</v>
-      </c>
-      <c r="F16" t="n">
-        <v>58944</v>
-      </c>
-      <c r="G16" t="n">
-        <v>34514</v>
-      </c>
-      <c r="H16" t="n">
-        <v>56450</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1381673</v>
-      </c>
-      <c r="J16" t="n">
-        <v>102140</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25144</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5915</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>137545</v>
-      </c>
-      <c r="C17" t="n">
-        <v>53085</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1802151</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1681658</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5914</v>
-      </c>
-      <c r="G17" t="n">
-        <v>97707</v>
-      </c>
-      <c r="H17" t="n">
-        <v>58846</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1409563</v>
-      </c>
-      <c r="J17" t="n">
-        <v>117937</v>
-      </c>
-      <c r="K17" t="n">
-        <v>25394</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>143454</v>
-      </c>
-      <c r="C18" t="n">
-        <v>66371</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1808787</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1666172</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>68242</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1377073</v>
-      </c>
-      <c r="J18" t="n">
-        <v>141134</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25560</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6521</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>148566</v>
-      </c>
-      <c r="C19" t="n">
-        <v>69324</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1836638</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1691808</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>67384</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1378126</v>
-      </c>
-      <c r="J19" t="n">
-        <v>143580</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26184</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6872</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>135245</v>
-      </c>
-      <c r="C20" t="n">
-        <v>61504</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1635049</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1514556</v>
-      </c>
-      <c r="F20" t="n">
-        <v>117207</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>51897</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1231932</v>
-      </c>
-      <c r="J20" t="n">
-        <v>119333</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21413</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5932</v>
+        <v>8282</v>
       </c>
     </row>
   </sheetData>
